--- a/COVID_vaccination_catalunya/data/dadesGeo_comarques.xlsx
+++ b/COVID_vaccination_catalunya/data/dadesGeo_comarques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarabase/Desktop/MyStuff/tableau/covid_vacunacio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B56C02-32C6-B249-BD4A-A644C80036F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5CEAED-0303-3B49-8512-F17800062C8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FF5D814A-15B3-3D4D-8368-0CCCC1967325}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>ALT URGELL</t>
   </si>
   <si>
-    <t>ALTA RIBAGORÇA</t>
-  </si>
-  <si>
     <t>ANOIA</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>ALTA RIBAGORCA</t>
   </si>
 </sst>
 </file>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C5E437-7787-9140-92D4-2874D446684D}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -566,13 +566,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -633,7 +633,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>42.463332999999999</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>41.613056</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>41.778888999999999</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>41.1</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>40.85</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>41.945</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>41.430556000000003</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>41.22</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>41.404443999999998</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>42.106900000000003</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>42.389167</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>41.366667</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>41.316667000000002</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>41.516666999999998</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>42.171388999999998</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>41.936399999999999</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>41.6</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>41.821989000000002</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>40.700000000000003</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>41.903333000000003</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>41.948056000000001</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>42.278888999999999</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>42.521667000000001</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>41.644444</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>42.117221999999998</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>41.133333</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>41.083333000000003</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>42.271110999999998</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>41.739167000000002</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>41.616667</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>41.864699999999999</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>41.979722000000002</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>41.153333000000003</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>41.05</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>41.662222</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>42.722499999999997</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>41.563889000000003</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>41.646388999999999</v>
